--- a/Statystyki_2018/Template/okrr.xlsx
+++ b/Statystyki_2018/Template/okrr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB94F92-3E23-4E33-8575-9ACF2F5AFB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="508"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npw, Nk, Rc(a)" sheetId="1" r:id="rId1"/>
@@ -20,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase" localSheetId="2">POMOCE!$O$1:$T$69</definedName>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AM$9</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AJ$9</definedName>
     <definedName name="__xlnm.Print_Area" localSheetId="1">'Opm, Op'!$A$1:$N$8</definedName>
     <definedName name="funkcja">POMOCE!$B$2:$B$10</definedName>
     <definedName name="LISTA_miesiąc">POMOCE!$L$2:$M$13</definedName>
     <definedName name="LISTA_sąd">POMOCE!$D$2:$E$14</definedName>
     <definedName name="miesiąc">POMOCE!$J$2:$J$13</definedName>
     <definedName name="POSIEDZENIA">'Opm, Op'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AM$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Npw, Nk, Rc(a)'!$A$1:$AJ$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Opm, Op'!$A$1:$N$8</definedName>
     <definedName name="RUCH">'Npw, Nk, Rc(a)'!#REF!</definedName>
     <definedName name="sąd">POMOCE!$C$2:$C$14</definedName>
@@ -35,12 +36,20 @@
     <definedName name="wydział">POMOCE!$F$2:$F$4</definedName>
     <definedName name="ZAŁATWIENIA">'Npw, Nk, Rc(a)'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -586,11 +595,14 @@
     <t>Razem 
 Załatwionych</t>
   </si>
+  <si>
+    <t>RCz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -770,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -931,21 +943,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -1187,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1199,16 +1196,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1217,16 +1214,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1237,14 +1234,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,85 +1329,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1353,50 +1368,26 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1404,18 +1395,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1861,15 +1852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:AM5"/>
+      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1892,13 +1883,12 @@
     <col min="16" max="16" width="18.109375" customWidth="1"/>
     <col min="17" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="30" width="8" customWidth="1"/>
-    <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="38" width="7.88671875" customWidth="1"/>
-    <col min="39" max="39" width="31.44140625" customWidth="1"/>
+    <col min="19" max="31" width="8" customWidth="1"/>
+    <col min="32" max="35" width="7.88671875" customWidth="1"/>
+    <col min="36" max="36" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,437 +1896,407 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
     </row>
-    <row r="2" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
     </row>
-    <row r="3" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
     </row>
-    <row r="4" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
     </row>
-    <row r="5" spans="1:39" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
     </row>
-    <row r="6" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="38" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="29" t="s">
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AJ6" s="30" t="s">
+      <c r="AG6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AK6" s="30" t="s">
+      <c r="AH6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AL6" s="31" t="s">
+      <c r="AI6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AM6" s="42" t="s">
+      <c r="AJ6" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="43" t="s">
+    <row r="7" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="39" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="46" t="s">
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47" t="s">
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="Y7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="Z7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="47" t="s">
+      <c r="AA7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="47" t="s">
+      <c r="AB7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="47" t="s">
+      <c r="AC7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AD7" s="48" t="s">
+      <c r="AD7" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="42"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="36"/>
     </row>
-    <row r="8" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+    <row r="8" spans="1:36" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="50" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="51" t="s">
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="51" t="s">
+      <c r="S8" s="40"/>
+      <c r="T8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="42"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="36"/>
     </row>
-    <row r="9" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+    <row r="9" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="51"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2346,65 +2306,25 @@
       <c r="W9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="54" t="s">
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="42"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="36"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="46">
-    <mergeCell ref="AI9:AL9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AK6:AK8"/>
-    <mergeCell ref="AL6:AL8"/>
-    <mergeCell ref="AM6:AM9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:AC6"/>
-    <mergeCell ref="AE6:AE9"/>
-    <mergeCell ref="AF6:AF9"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="F1:AM5"/>
+  <mergeCells count="43">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -2413,7 +2333,41 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="F1:AJ5"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:AC6"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="AF6:AF8"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -2421,15 +2375,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"#ref!"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>sąd</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:E4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>miesiąc</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2443,7 +2397,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>POMOCE!$F$2:$F$10</xm:f>
           </x14:formula1>
@@ -2452,7 +2406,7 @@
           </x14:formula2>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>POMOCE!$C$2:$C$14</xm:f>
           </x14:formula1>
@@ -2461,7 +2415,7 @@
           </x14:formula2>
           <xm:sqref>C2:D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>POMOCE!$F$2:$F$4</xm:f>
           </x14:formula1>
@@ -2477,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2503,22 +2457,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.4">
@@ -2527,8 +2481,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2546,8 +2500,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2565,17 +2519,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="11"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -2591,88 +2545,88 @@
       <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="62"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
@@ -2685,15 +2639,26 @@
       <c r="J8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="62"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="53"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:J7"/>
@@ -2701,18 +2666,7 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:N6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.19652777777777777" right="0.19652777777777777" top="0.19652777777777777" bottom="0.19722222222222222" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -2723,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
@@ -3549,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
@@ -3567,56 +3521,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="20" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
     </row>
     <row r="2" spans="1:27" s="20" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="69" t="s">
         <v>129</v>
       </c>
@@ -3641,67 +3595,67 @@
     </row>
     <row r="3" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="73"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="69"/>
-      <c r="O3" s="74" t="s">
+      <c r="O3" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="66"/>
+      <c r="T3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73" t="s">
+      <c r="U3" s="66"/>
+      <c r="V3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73" t="s">
+      <c r="W3" s="66"/>
+      <c r="X3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="73"/>
+      <c r="Y3" s="66"/>
       <c r="Z3" s="71"/>
       <c r="AA3" s="72"/>
     </row>
     <row r="4" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="23" t="s">
         <v>134</v>
       </c>
@@ -3727,9 +3681,9 @@
         <v>135</v>
       </c>
       <c r="N4" s="69"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
       <c r="R4" s="23" t="s">
         <v>134</v>
       </c>
@@ -3760,16 +3714,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B2:B4"/>
@@ -3781,6 +3725,16 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3792,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
@@ -3808,62 +3762,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
     </row>
     <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="77" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
@@ -3885,7 +3839,7 @@
       <c r="I3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="77"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="21" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +3861,7 @@
       <c r="Q3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="78"/>
+      <c r="R3" s="76"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
